--- a/19秋招信息表.xlsx
+++ b/19秋招信息表.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="公司列表" sheetId="1" r:id="rId1"/>
-    <sheet name="图例" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="图例" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="196">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,10 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>链家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完美世界</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,10 +405,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技术运营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>官网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -429,14 +422,6 @@
   </si>
   <si>
     <t>内推邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内推邮箱，C++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -488,10 +473,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内推码：6079，官网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>官网投递</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -504,10 +485,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内推码QNQSF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>度小满</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -560,19 +537,273 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内推不影响秋招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内推码8625</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>岗位少，数量少，不影响秋招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内推码6153XBHZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推邮箱：yangfan153612@163.com,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C/C++研发工程师</t>
+  </si>
+  <si>
+    <t>南京信息工程研究所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>841所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰证券信息部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中电14所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瑞继保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里南京分部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千米网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外企</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思杰、趋势、SAP、阿尔卡特朗讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰证券、华为、焦点科技、南瑞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>师姐推荐：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏小妍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭小研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网，内推码372424</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测评GG</t>
+  </si>
+  <si>
+    <t>技术运营（上海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C/C++软件开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏后端开发，广州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推邮箱，免笔试，不影响秋招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++研发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推邮箱，C++，免笔试，不影响秋招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师</t>
+  </si>
+  <si>
+    <t>软件开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网，南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端研发工程师</t>
+  </si>
+  <si>
+    <t>面试</t>
+  </si>
+  <si>
+    <t>贝壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推邮箱，内推不影响秋招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京无合适岗位，内推码：6079，官网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京。。内推码QNQSF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推免笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海、杭州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无合适岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台开发工程师-西安</t>
+  </si>
+  <si>
+    <t>基本每个岗位就招4个，岗位少不影响秋招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扎实的C/ c++工作知识</t>
+  </si>
+  <si>
+    <t>熟悉面向对象和设计模式</t>
+  </si>
+  <si>
+    <t>能够使用标准c++库和通用算法解决问题</t>
+  </si>
+  <si>
+    <t>了解Windows操作系统的进程和内存管理</t>
+  </si>
+  <si>
+    <t>有使用多线程和并发编程开发Windows应用程序的经验</t>
+  </si>
+  <si>
+    <t>能够排除和调试Windows应用程序</t>
+  </si>
+  <si>
+    <t>熟悉Linux。熟悉命令和常用工具</t>
+  </si>
+  <si>
+    <t>熟悉Linux开发环境和工具，如gcc、gdb、git和svn</t>
+  </si>
+  <si>
+    <t>精通shell、C语言和Python编程</t>
+  </si>
+  <si>
+    <t>熟悉至少一个流行数据库。有性能调优经验者优先</t>
+  </si>
+  <si>
+    <t>上海有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++底层开发工程师</t>
+  </si>
+  <si>
+    <t>游戏研发工程师</t>
+  </si>
+  <si>
+    <t>广州、成都，VGBers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京珠海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯互娱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +811,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,6 +837,20 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft Yahei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -680,7 +925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -736,7 +981,17 @@
     <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1017,24 +1272,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="30.25" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="9" customWidth="1"/>
     <col min="3" max="3" width="9" style="9"/>
     <col min="4" max="4" width="10" style="9" customWidth="1"/>
-    <col min="5" max="6" width="9" style="9"/>
+    <col min="5" max="5" width="9.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="9"/>
     <col min="7" max="7" width="19.75" style="9" customWidth="1"/>
-    <col min="8" max="8" width="28.25" style="9" customWidth="1"/>
-    <col min="9" max="9" width="9" style="9"/>
-    <col min="10" max="10" width="36.75" style="9" customWidth="1"/>
+    <col min="8" max="8" width="3.125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="9" customWidth="1"/>
+    <col min="10" max="10" width="39" style="9" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1310,7 +1566,7 @@
         <v>21</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1327,33 +1583,39 @@
         <v>11</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>100</v>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1379,7 +1641,7 @@
         <v>42</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="3" customFormat="1">
@@ -1401,7 +1663,9 @@
         <v>32</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10">
@@ -1421,13 +1685,13 @@
         <v>11</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1">
@@ -1466,13 +1730,13 @@
         <v>11</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1">
@@ -1496,7 +1760,7 @@
         <v>21</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1">
@@ -1520,10 +1784,10 @@
         <v>42</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1536,8 +1800,14 @@
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="G21" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="J21" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1556,8 +1826,14 @@
       <c r="F22" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="G22" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="J22" s="9" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1576,8 +1852,14 @@
       <c r="F23" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="G23" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="J23" s="9" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1">
@@ -1595,13 +1877,17 @@
         <v>43358</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>156</v>
+      </c>
       <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
+      <c r="I24" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="J24" s="12" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1617,23 +1903,18 @@
       <c r="F25" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="G25" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="J25" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="A26" s="5"/>
     </row>
     <row r="27" spans="1:10" s="14" customFormat="1">
       <c r="A27" s="13">
@@ -1664,7 +1945,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>18</v>
@@ -1672,11 +1953,14 @@
       <c r="F28" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="G28" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="I28" s="9" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1684,7 +1968,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>18</v>
@@ -1696,7 +1980,7 @@
         <v>31</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="2" customFormat="1">
@@ -1704,14 +1988,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>11</v>
@@ -1722,7 +2006,7 @@
         <v>21</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1730,7 +2014,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>18</v>
@@ -1742,7 +2026,7 @@
         <v>21</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1750,7 +2034,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>18</v>
@@ -1764,13 +2048,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>11</v>
@@ -1779,7 +2063,7 @@
         <v>21</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1787,13 +2071,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>11</v>
@@ -1802,7 +2086,7 @@
         <v>21</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1810,13 +2094,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>11</v>
@@ -1825,7 +2109,7 @@
         <v>21</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1833,7 +2117,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>18</v>
@@ -1845,96 +2129,109 @@
         <v>31</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="2" customFormat="1">
+      <c r="A37" s="12">
         <v>36</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="9" t="s">
+      <c r="F37" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="2" customFormat="1">
+      <c r="A38" s="12">
+        <v>37</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" s="9" t="s">
+      <c r="C38" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J37" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="5">
-        <v>37</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="9" t="s">
+      <c r="J38" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="2" customFormat="1">
+      <c r="A39" s="12">
+        <v>38</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" s="9" t="s">
+      <c r="C39" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="20">
+        <v>43354</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J38" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="5">
-        <v>38</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="11">
-        <v>43354</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="J39" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="25" customFormat="1">
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="11">
+      <c r="B40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="24">
         <v>43357</v>
       </c>
-      <c r="F40" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>116</v>
+      <c r="F40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1942,13 +2239,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="E41" s="11">
+        <v>43383</v>
+      </c>
       <c r="F41" s="9" t="s">
-        <v>90</v>
+        <v>11</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1956,7 +2262,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>18</v>
@@ -1965,10 +2271,16 @@
         <v>43367</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>90</v>
+        <v>11</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="2" customFormat="1">
@@ -1976,33 +2288,45 @@
         <v>42</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
+      <c r="E43" s="20">
+        <v>43346</v>
+      </c>
       <c r="F43" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="5">
+      <c r="J43" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="2" customFormat="1">
+      <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>90</v>
+      <c r="B44" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2010,13 +2334,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2024,13 +2351,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="D46" s="11">
+        <v>43344</v>
+      </c>
       <c r="F46" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2038,13 +2368,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="2" customFormat="1">
@@ -2052,7 +2385,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>18</v>
@@ -2060,13 +2393,13 @@
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
       <c r="J48" s="12" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2074,13 +2407,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="E49" s="11">
+        <v>43353</v>
+      </c>
       <c r="F49" s="9" t="s">
-        <v>90</v>
+        <v>11</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="2" customFormat="1">
@@ -2088,7 +2427,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>18</v>
@@ -2096,13 +2435,15 @@
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G50" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>127</v>
+      </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
       <c r="J50" s="12" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="2" customFormat="1">
@@ -2110,7 +2451,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>18</v>
@@ -2118,13 +2459,13 @@
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
       <c r="J51" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2132,13 +2473,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="E52" s="11">
+        <v>43355</v>
+      </c>
       <c r="F52" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2146,13 +2496,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="E53" s="11">
+        <v>43349</v>
+      </c>
       <c r="F53" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2160,13 +2519,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2174,13 +2533,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="11">
+        <v>43333</v>
+      </c>
+      <c r="F55" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>90</v>
+      <c r="G55" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="2" customFormat="1">
@@ -2188,17 +2556,21 @@
         <v>55</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C56" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="F56" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
       <c r="J56" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2206,10 +2578,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="E57" s="11">
         <v>43348</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2217,10 +2598,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="E58" s="11">
         <v>43357</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2228,7 +2618,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="11">
+        <v>43325</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2238,13 +2640,37 @@
       <c r="B60" s="9">
         <v>58</v>
       </c>
+      <c r="C60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="11">
+        <v>43320</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="5">
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="11">
+        <v>43334</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2252,7 +2678,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="11">
+        <v>43348</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2260,7 +2695,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2268,149 +2712,186 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>114</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="5">
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>115</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="5">
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>116</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="5">
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>117</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="5">
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>118</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="5">
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>119</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="5">
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>120</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="5">
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>121</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="5">
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>122</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="5">
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="5">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="5">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="5">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="5">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="5">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="5">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="5">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="5">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="5">
-        <v>83</v>
+        <v>123</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="11">
+        <v>43348</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="B74" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E74" s="11">
+        <v>43354</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C90:C1048576 C1:C73">
       <formula1>"提前批,秋招"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I73 I90:I1048576">
       <formula1>"申请,申请GG,测评,测评GG,笔试,笔试GG,面试,面试GG,offer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F73 F90:F1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D73 D90:D1048576">
       <formula1>43269</formula1>
       <formula2>43452</formula2>
     </dataValidation>
@@ -2422,34 +2903,346 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="53.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:10">
       <c r="A1" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="17" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="18" t="s">
-        <v>97</v>
-      </c>
+    <row r="5" spans="1:10" s="15" customFormat="1">
+      <c r="A5" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" s="2" customFormat="1">
+      <c r="A17" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" s="2" customFormat="1">
+      <c r="A18" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" s="2" customFormat="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" s="2" customFormat="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D20">
+      <formula1>43269</formula1>
+      <formula2>43452</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F20">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I20">
+      <formula1>"申请,申请GG,测评,测评GG,笔试,笔试GG,面试,面试GG,offer"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C20">
+      <formula1>"提前批,秋招"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/19秋招信息表.xlsx
+++ b/19秋招信息表.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="公司列表" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="图例" sheetId="2" r:id="rId3"/>
+    <sheet name="图例" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="208">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -608,10 +608,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>华泰证券、华为、焦点科技、南瑞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>师姐推荐：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -804,6 +800,58 @@
   </si>
   <si>
     <t>腾讯互娱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰证券、华为、焦点科技、南瑞、中兴、烽火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫眼娱乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四范式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳、长沙、北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京，上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台开发工程师（培养计划）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中移物联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有机会，上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -925,7 +973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -990,6 +1038,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1272,11 +1323,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1287,7 +1338,7 @@
     <col min="4" max="4" width="10" style="9" customWidth="1"/>
     <col min="5" max="5" width="9.25" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="19.75" style="9" customWidth="1"/>
+    <col min="7" max="7" width="25.375" style="9" customWidth="1"/>
     <col min="8" max="8" width="3.125" style="9" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="9" customWidth="1"/>
     <col min="10" max="10" width="39" style="9" customWidth="1"/>
@@ -1464,28 +1515,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1">
-      <c r="A7" s="6">
+    <row r="7" spans="1:10" s="14" customFormat="1">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="13">
         <v>360</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="26">
+        <v>43357</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>54</v>
+      <c r="J7" s="13" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1612,10 +1665,10 @@
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1644,29 +1697,31 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1">
-      <c r="A15" s="6">
+    <row r="15" spans="1:10" s="14" customFormat="1">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="C15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6" t="s">
+      <c r="H15" s="13"/>
+      <c r="I15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="6"/>
+      <c r="J15" s="13" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
@@ -1685,7 +1740,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>21</v>
@@ -1730,7 +1785,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>21</v>
@@ -1801,7 +1856,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>21</v>
@@ -1827,13 +1882,13 @@
         <v>11</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1853,13 +1908,13 @@
         <v>11</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1">
@@ -1880,14 +1935,14 @@
         <v>11</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12" t="s">
         <v>21</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1904,7 +1959,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>21</v>
@@ -1927,7 +1982,9 @@
         <v>18</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="E27" s="26">
+        <v>43353</v>
+      </c>
       <c r="F27" s="13" t="s">
         <v>31</v>
       </c>
@@ -1945,22 +2002,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J28" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2129,7 +2186,7 @@
         <v>31</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="2" customFormat="1">
@@ -2231,7 +2288,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2251,7 +2308,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>21</v>
@@ -2274,7 +2331,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>21</v>
@@ -2304,7 +2361,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="2" customFormat="1">
@@ -2326,7 +2383,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2343,7 +2400,7 @@
         <v>89</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2377,7 +2434,7 @@
         <v>89</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="2" customFormat="1">
@@ -2399,7 +2456,7 @@
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
       <c r="J48" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2419,7 +2476,7 @@
         <v>11</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="2" customFormat="1">
@@ -2468,27 +2525,30 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="5">
+    <row r="52" spans="1:10" s="2" customFormat="1">
+      <c r="A52" s="12">
         <v>51</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="11">
+      <c r="C52" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="20">
         <v>43355</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G52" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="J52" s="9" t="s">
+      <c r="G52" s="12" t="s">
         <v>182</v>
+      </c>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2508,10 +2568,10 @@
         <v>89</v>
       </c>
       <c r="G53" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="J53" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2545,10 +2605,10 @@
         <v>89</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="2" customFormat="1">
@@ -2590,27 +2650,31 @@
         <v>89</v>
       </c>
       <c r="J57" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="2" customFormat="1">
+      <c r="A58" s="12">
+        <v>57</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="20">
+        <v>43357</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="5">
-        <v>57</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="11">
-        <v>43357</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2630,27 +2694,35 @@
         <v>89</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="2" customFormat="1">
+      <c r="A60" s="12">
         <v>59</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="12">
         <v>58</v>
       </c>
-      <c r="C60" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="11">
+      <c r="C60" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="20">
         <v>43320</v>
       </c>
-      <c r="F60" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J60" s="9" t="s">
-        <v>167</v>
+      <c r="E60" s="20">
+        <v>43337</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2670,24 +2742,33 @@
         <v>89</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="5">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="2" customFormat="1">
+      <c r="A62" s="12">
         <v>61</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="11">
+      <c r="C62" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="12"/>
+      <c r="E62" s="20">
         <v>43348</v>
       </c>
-      <c r="F62" s="9" t="s">
-        <v>89</v>
+      <c r="F62" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2704,7 +2785,7 @@
         <v>89</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2721,10 +2802,10 @@
         <v>89</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2769,7 +2850,7 @@
         <v>89</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2786,21 +2867,26 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="5">
+    <row r="69" spans="1:10" s="2" customFormat="1">
+      <c r="A69" s="12">
         <v>68</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="9" t="s">
+      <c r="C69" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="J69" s="9" t="s">
-        <v>188</v>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2817,7 +2903,7 @@
         <v>89</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2848,7 +2934,7 @@
         <v>89</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2868,27 +2954,70 @@
         <v>89</v>
       </c>
       <c r="J73" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="5">
+        <v>73</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="B74" s="9" t="s">
-        <v>195</v>
+      <c r="C74" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="E74" s="11">
         <v>43354</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="11">
+        <v>43345</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C90:C1048576 C1:C73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C90:C1048576 C1:C76">
       <formula1>"提前批,秋招"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I73 I90:I1048576">
       <formula1>"申请,申请GG,测评,测评GG,笔试,笔试GG,面试,面试GG,offer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F73 F90:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F76 F90:F1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D73 D90:D1048576">
@@ -2903,76 +3032,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2996,9 +3059,17 @@
         <v>96</v>
       </c>
     </row>
+    <row r="4" spans="1:10">
+      <c r="D4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" t="s">
+        <v>206</v>
+      </c>
+    </row>
     <row r="5" spans="1:10" s="15" customFormat="1">
       <c r="A5" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -3155,11 +3226,13 @@
     <row r="16" spans="1:10" s="2" customFormat="1">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="E16" s="20">
+        <v>43359</v>
+      </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -3167,11 +3240,9 @@
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1">
-      <c r="A17" s="12" t="s">
-        <v>139</v>
-      </c>
+      <c r="A17" s="12"/>
       <c r="B17" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -3184,10 +3255,10 @@
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1">
       <c r="A18" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -3199,9 +3270,11 @@
       <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1">
-      <c r="A19" s="12"/>
+      <c r="A19" s="12" t="s">
+        <v>141</v>
+      </c>
       <c r="B19" s="12" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -3215,7 +3288,7 @@
     <row r="20" spans="1:10" s="2" customFormat="1">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -3226,24 +3299,105 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
+    <row r="21" spans="1:10" s="2" customFormat="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D20">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D21">
       <formula1>43269</formula1>
       <formula2>43452</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F21">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I21">
       <formula1>"申请,申请GG,测评,测评GG,笔试,笔试GG,面试,面试GG,offer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C21">
       <formula1>"提前批,秋招"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/19秋招信息表.xlsx
+++ b/19秋招信息表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="公司列表" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="209">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,6 +852,10 @@
   </si>
   <si>
     <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海，软件开发工程师8个人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1325,9 +1329,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2886,7 +2890,7 @@
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
       <c r="J69" s="12" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3034,8 +3038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3244,10 +3248,14 @@
       <c r="B17" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="F17" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>

--- a/19秋招信息表.xlsx
+++ b/19秋招信息表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="226">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,10 +418,6 @@
   </si>
   <si>
     <t>官网，还有机会。杭州，考拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内推邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -588,274 +584,346 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>思杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外企</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思杰、趋势、SAP、阿尔卡特朗讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>师姐推荐：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏小妍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭小研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网，内推码372424</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测评GG</t>
+  </si>
+  <si>
+    <t>技术运营（上海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C/C++软件开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏后端开发，广州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推邮箱，免笔试，不影响秋招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++研发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推邮箱，C++，免笔试，不影响秋招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师</t>
+  </si>
+  <si>
+    <t>软件开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网，南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端研发工程师</t>
+  </si>
+  <si>
+    <t>面试</t>
+  </si>
+  <si>
+    <t>贝壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推邮箱，内推不影响秋招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京无合适岗位，内推码：6079，官网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京。。内推码QNQSF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推免笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海、杭州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无合适岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台开发工程师-西安</t>
+  </si>
+  <si>
+    <t>基本每个岗位就招4个，岗位少不影响秋招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扎实的C/ c++工作知识</t>
+  </si>
+  <si>
+    <t>熟悉面向对象和设计模式</t>
+  </si>
+  <si>
+    <t>能够使用标准c++库和通用算法解决问题</t>
+  </si>
+  <si>
+    <t>了解Windows操作系统的进程和内存管理</t>
+  </si>
+  <si>
+    <t>有使用多线程和并发编程开发Windows应用程序的经验</t>
+  </si>
+  <si>
+    <t>能够排除和调试Windows应用程序</t>
+  </si>
+  <si>
+    <t>熟悉Linux。熟悉命令和常用工具</t>
+  </si>
+  <si>
+    <t>熟悉Linux开发环境和工具，如gcc、gdb、git和svn</t>
+  </si>
+  <si>
+    <t>精通shell、C语言和Python编程</t>
+  </si>
+  <si>
+    <t>熟悉至少一个流行数据库。有性能调优经验者优先</t>
+  </si>
+  <si>
+    <t>上海有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++底层开发工程师</t>
+  </si>
+  <si>
+    <t>游戏研发工程师</t>
+  </si>
+  <si>
+    <t>广州、成都，VGBers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京珠海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯互娱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰证券、华为、焦点科技、南瑞、中兴、烽火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫眼娱乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四范式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳、长沙、北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京，上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台开发工程师（培养计划）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中移物联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有机会，上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海，软件开发工程师8个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>努比亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用软件开发工程师（C++)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网，西安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京上海广州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪潮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中移物联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咪咕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴软创</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴力维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推邮箱,南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>千米网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>思杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外企</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>思杰、趋势、SAP、阿尔卡特朗讯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>师姐推荐：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏小妍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭小研</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网，内推码372424</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测评GG</t>
-  </si>
-  <si>
-    <t>技术运营（上海）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C/C++软件开发工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏后端开发，广州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研发工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内推邮箱，免笔试，不影响秋招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C++研发工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内推邮箱，C++，免笔试，不影响秋招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件开发工程师</t>
-  </si>
-  <si>
-    <t>软件开发工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网，南京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端研发工程师</t>
-  </si>
-  <si>
-    <t>面试</t>
-  </si>
-  <si>
-    <t>贝壳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内推邮箱，内推不影响秋招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京无合适岗位，内推码：6079，官网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京。。内推码QNQSF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内推免笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海、杭州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无合适岗位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台开发工程师-西安</t>
-  </si>
-  <si>
-    <t>基本每个岗位就招4个，岗位少不影响秋招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扎实的C/ c++工作知识</t>
-  </si>
-  <si>
-    <t>熟悉面向对象和设计模式</t>
-  </si>
-  <si>
-    <t>能够使用标准c++库和通用算法解决问题</t>
-  </si>
-  <si>
-    <t>了解Windows操作系统的进程和内存管理</t>
-  </si>
-  <si>
-    <t>有使用多线程和并发编程开发Windows应用程序的经验</t>
-  </si>
-  <si>
-    <t>能够排除和调试Windows应用程序</t>
-  </si>
-  <si>
-    <t>熟悉Linux。熟悉命令和常用工具</t>
-  </si>
-  <si>
-    <t>熟悉Linux开发环境和工具，如gcc、gdb、git和svn</t>
-  </si>
-  <si>
-    <t>精通shell、C语言和Python编程</t>
-  </si>
-  <si>
-    <t>熟悉至少一个流行数据库。有性能调优经验者优先</t>
-  </si>
-  <si>
-    <t>上海有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C++底层开发工程师</t>
-  </si>
-  <si>
-    <t>游戏研发工程师</t>
-  </si>
-  <si>
-    <t>广州、成都，VGBers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青岛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无IT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京珠海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯互娱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰证券、华为、焦点科技、南瑞、中兴、烽火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运维工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫眼娱乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四范式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳、长沙、北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京，上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台开发工程师（培养计划）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中移物联网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还有机会，上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海，软件开发工程师8个人</t>
+    <t>批次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六级，岗位需求少，找1个2个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -906,7 +974,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -949,6 +1017,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -977,7 +1051,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1047,6 +1121,7 @@
     <xf numFmtId="58" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1327,11 +1402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J69" sqref="J69"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1542,7 +1617,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1626,27 +1701,30 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="1:10" s="2" customFormat="1">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="C12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>98</v>
+      <c r="J12" s="12" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="3" customFormat="1">
@@ -1669,36 +1747,38 @@
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="10">
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="8">
         <v>43283</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>109</v>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="14" customFormat="1">
@@ -1724,7 +1804,7 @@
         <v>13</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1744,7 +1824,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>21</v>
@@ -1789,7 +1869,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>21</v>
@@ -1819,7 +1899,7 @@
         <v>21</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1">
@@ -1860,7 +1940,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>21</v>
@@ -1886,13 +1966,13 @@
         <v>11</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1912,13 +1992,13 @@
         <v>11</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1">
@@ -1939,14 +2019,14 @@
         <v>11</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12" t="s">
         <v>21</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1963,13 +2043,13 @@
         <v>11</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1990,7 +2070,7 @@
         <v>43353</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
@@ -2006,22 +2086,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="I28" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="J28" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2067,7 +2147,7 @@
         <v>21</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2087,7 +2167,7 @@
         <v>21</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2124,7 +2204,7 @@
         <v>21</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2147,7 +2227,7 @@
         <v>21</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2190,7 +2270,7 @@
         <v>31</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="2" customFormat="1">
@@ -2216,7 +2296,7 @@
         <v>12</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="2" customFormat="1">
@@ -2268,7 +2348,7 @@
         <v>21</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="25" customFormat="1">
@@ -2292,7 +2372,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2312,7 +2392,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>21</v>
@@ -2335,13 +2415,13 @@
         <v>11</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="2" customFormat="1">
@@ -2365,7 +2445,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="2" customFormat="1">
@@ -2387,7 +2467,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2404,7 +2484,7 @@
         <v>89</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2438,7 +2518,7 @@
         <v>89</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="2" customFormat="1">
@@ -2460,27 +2540,33 @@
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
       <c r="J48" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="2" customFormat="1">
+      <c r="A49" s="12">
         <v>48</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="11">
+      <c r="C49" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="20">
         <v>43353</v>
       </c>
-      <c r="F49" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>169</v>
+      <c r="F49" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="2" customFormat="1">
@@ -2499,12 +2585,12 @@
         <v>11</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
       <c r="J50" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="2" customFormat="1">
@@ -2526,7 +2612,7 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
       <c r="J51" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="2" customFormat="1">
@@ -2547,12 +2633,12 @@
         <v>89</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
       <c r="J52" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2572,10 +2658,10 @@
         <v>89</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2609,10 +2695,10 @@
         <v>89</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="2" customFormat="1">
@@ -2634,7 +2720,7 @@
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
       <c r="J56" s="12" t="s">
-        <v>102</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2654,7 +2740,7 @@
         <v>89</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="2" customFormat="1">
@@ -2678,7 +2764,7 @@
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
       <c r="J58" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2698,7 +2784,7 @@
         <v>89</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="2" customFormat="1">
@@ -2721,12 +2807,12 @@
         <v>11</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
       <c r="J60" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2734,7 +2820,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>18</v>
@@ -2746,7 +2832,7 @@
         <v>89</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="2" customFormat="1">
@@ -2754,7 +2840,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>18</v>
@@ -2767,12 +2853,12 @@
         <v>11</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
       <c r="J62" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2780,7 +2866,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>18</v>
@@ -2789,7 +2875,7 @@
         <v>89</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2797,7 +2883,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>18</v>
@@ -2806,10 +2892,10 @@
         <v>89</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2817,7 +2903,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>18</v>
@@ -2831,7 +2917,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>18</v>
@@ -2845,7 +2931,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>18</v>
@@ -2854,7 +2940,7 @@
         <v>89</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2862,7 +2948,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>18</v>
@@ -2876,7 +2962,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>18</v>
@@ -2890,7 +2976,7 @@
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
       <c r="J69" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2898,7 +2984,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>18</v>
@@ -2907,7 +2993,7 @@
         <v>89</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2915,7 +3001,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>18</v>
@@ -2929,7 +3015,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>18</v>
@@ -2938,7 +3024,7 @@
         <v>89</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2946,7 +3032,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>18</v>
@@ -2958,7 +3044,7 @@
         <v>89</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2966,7 +3052,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>18</v>
@@ -2983,7 +3069,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>18</v>
@@ -2997,7 +3083,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>18</v>
@@ -3009,19 +3095,206 @@
         <v>89</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="2" customFormat="1">
+      <c r="A77" s="12">
+        <v>76</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="5">
+        <v>77</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="5">
+        <v>79</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="2" customFormat="1">
+      <c r="A81" s="12">
+        <v>80</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+    </row>
+    <row r="82" spans="1:10" s="2" customFormat="1">
+      <c r="A82" s="12">
+        <v>81</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="2" customFormat="1">
+      <c r="A83" s="12">
+        <v>82</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+    </row>
+    <row r="84" spans="1:10" s="2" customFormat="1">
+      <c r="A84" s="12">
+        <v>83</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="5">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C90:C1048576 C1:C76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C90:C1048576 C1:C84">
       <formula1>"提前批,秋招"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I73 I90:I1048576">
       <formula1>"申请,申请GG,测评,测评GG,笔试,笔试GG,面试,面试GG,offer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F76 F90:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F84 F90:F1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D73 D90:D1048576">
@@ -3039,7 +3312,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3063,17 +3336,23 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="D4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E4" t="s">
-        <v>206</v>
+    <row r="4" spans="1:10" s="27" customFormat="1">
+      <c r="C4" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="15" customFormat="1">
       <c r="A5" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -3088,7 +3367,7 @@
     <row r="6" spans="1:10" s="2" customFormat="1">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -3104,7 +3383,7 @@
     <row r="7" spans="1:10" s="2" customFormat="1">
       <c r="A7" s="12"/>
       <c r="B7" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -3118,7 +3397,7 @@
     <row r="8" spans="1:10" s="2" customFormat="1">
       <c r="A8" s="12"/>
       <c r="B8" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -3132,7 +3411,7 @@
     <row r="9" spans="1:10" s="2" customFormat="1">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -3146,7 +3425,7 @@
     <row r="10" spans="1:10" s="2" customFormat="1">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -3160,7 +3439,7 @@
     <row r="11" spans="1:10" s="2" customFormat="1">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -3174,7 +3453,7 @@
     <row r="12" spans="1:10" s="2" customFormat="1">
       <c r="A12" s="12"/>
       <c r="B12" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -3188,7 +3467,7 @@
     <row r="13" spans="1:10" s="2" customFormat="1">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -3202,7 +3481,7 @@
     <row r="14" spans="1:10" s="2" customFormat="1">
       <c r="A14" s="12"/>
       <c r="B14" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -3216,7 +3495,7 @@
     <row r="15" spans="1:10" s="2" customFormat="1">
       <c r="A15" s="12"/>
       <c r="B15" s="12" t="s">
-        <v>137</v>
+        <v>222</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -3230,7 +3509,7 @@
     <row r="16" spans="1:10" s="2" customFormat="1">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -3246,7 +3525,7 @@
     <row r="17" spans="1:10" s="2" customFormat="1">
       <c r="A17" s="12"/>
       <c r="B17" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>18</v>
@@ -3263,10 +3542,10 @@
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1">
       <c r="A18" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -3279,10 +3558,10 @@
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1">
       <c r="A19" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -3296,7 +3575,7 @@
     <row r="20" spans="1:10" s="2" customFormat="1">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -3310,7 +3589,7 @@
     <row r="21" spans="1:10" s="2" customFormat="1">
       <c r="A21" s="12"/>
       <c r="B21" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -3355,52 +3634,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/19秋招信息表.xlsx
+++ b/19秋招信息表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="243">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,9 +96,6 @@
   <si>
     <t>开发岗</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请GG</t>
   </si>
   <si>
     <t>申请</t>
@@ -775,10 +772,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杭州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上海北京</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -799,7 +792,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>运维工程师</t>
+    <t>猫眼娱乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四范式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳、长沙、北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京，上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台开发工程师（培养计划）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中移物联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海，软件开发工程师8个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>努比亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用软件开发工程师（C++)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网，西安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京上海广州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪潮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中移物联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咪咕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴软创</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴力维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推邮箱,南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千米网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六级，岗位需求少，找1个2个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -807,59 +908,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>猫眼娱乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四范式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳、长沙、北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京，上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台开发工程师（培养计划）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中移物联网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还有机会，上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海，软件开发工程师8个人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>努比亚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用软件开发工程师（C++)</t>
+    <t>酷狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360企业安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州，软件开发，吴鹏，HS24116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国睿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锐捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州 北京 福州 上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京杭州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国电信IT中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科微电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瑞信通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维开发工程师</t>
+  </si>
+  <si>
+    <t>邮箱，上海、广州（后端）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网，西安，服务器端工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网，上海，游戏开发工程师（C++）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -867,63 +987,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>触宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京上海广州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浪潮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>济南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中移物联网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咪咕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中兴软创</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中兴力维</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内推邮箱,南京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>千米网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否投递</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六级，岗位需求少，找1个2个</t>
+    <t>内推官网，上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡学位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1051,7 +1119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1122,6 +1190,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1402,11 +1473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J82" sqref="J82"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1453,7 +1524,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1">
@@ -1470,7 +1541,7 @@
         <v>43280</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>11</v>
@@ -1482,9 +1553,7 @@
       <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" s="14" customFormat="1">
       <c r="A3" s="13">
@@ -1509,7 +1578,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1517,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>10</v>
@@ -1532,10 +1601,10 @@
         <v>11</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1">
@@ -1543,7 +1612,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>10</v>
@@ -1552,20 +1621,20 @@
         <v>43283</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1573,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>10</v>
@@ -1588,36 +1657,36 @@
         <v>11</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="14" customFormat="1">
-      <c r="A7" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="6">
         <v>360</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="26">
+      <c r="D7" s="6"/>
+      <c r="E7" s="28">
         <v>43357</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>203</v>
+      <c r="F7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1625,7 +1694,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>10</v>
@@ -1634,10 +1703,10 @@
         <v>11</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1645,7 +1714,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>10</v>
@@ -1654,13 +1723,13 @@
         <v>11</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="15" customFormat="1">
@@ -1680,7 +1749,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>18</v>
@@ -1691,14 +1760,14 @@
         <v>11</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1">
@@ -1706,7 +1775,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>18</v>
@@ -1717,14 +1786,14 @@
         <v>11</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="3" customFormat="1">
@@ -1732,7 +1801,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>18</v>
@@ -1743,14 +1812,14 @@
         <v>11</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1">
@@ -1775,10 +1844,10 @@
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="14" customFormat="1">
@@ -1786,7 +1855,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>18</v>
@@ -1797,14 +1866,14 @@
         <v>11</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13" t="s">
         <v>13</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1812,7 +1881,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>18</v>
@@ -1824,13 +1893,13 @@
         <v>11</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1">
@@ -1838,7 +1907,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>18</v>
@@ -1851,7 +1920,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17" s="6"/>
     </row>
@@ -1860,7 +1929,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>18</v>
@@ -1869,13 +1938,13 @@
         <v>11</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1">
@@ -1883,7 +1952,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>18</v>
@@ -1896,10 +1965,10 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1">
@@ -1907,7 +1976,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>18</v>
@@ -1920,10 +1989,10 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5">
@@ -1940,13 +2009,13 @@
         <v>11</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1954,7 +2023,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>18</v>
@@ -1966,13 +2035,13 @@
         <v>11</v>
       </c>
       <c r="G22" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1980,7 +2049,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>18</v>
@@ -1992,13 +2061,13 @@
         <v>11</v>
       </c>
       <c r="G23" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1">
@@ -2006,7 +2075,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>18</v>
@@ -2019,14 +2088,14 @@
         <v>11</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2034,7 +2103,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>18</v>
@@ -2043,13 +2112,13 @@
         <v>11</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2060,7 +2129,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>18</v>
@@ -2075,33 +2144,36 @@
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="2" customFormat="1">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="J28" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2109,7 +2181,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>18</v>
@@ -2118,10 +2190,10 @@
         <v>43340</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="2" customFormat="1">
@@ -2129,14 +2201,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>11</v>
@@ -2144,10 +2216,10 @@
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2155,7 +2227,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>18</v>
@@ -2164,10 +2236,10 @@
         <v>11</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2175,13 +2247,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2189,22 +2261,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="F33" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2212,22 +2284,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="F34" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2235,22 +2307,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="F35" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2258,7 +2330,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>18</v>
@@ -2267,10 +2339,10 @@
         <v>43343</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="2" customFormat="1">
@@ -2278,14 +2350,14 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>11</v>
@@ -2296,7 +2368,7 @@
         <v>12</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="2" customFormat="1">
@@ -2304,14 +2376,14 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>11</v>
@@ -2319,10 +2391,10 @@
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="2" customFormat="1">
@@ -2330,7 +2402,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>18</v>
@@ -2345,10 +2417,10 @@
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="25" customFormat="1">
@@ -2356,7 +2428,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>18</v>
@@ -2366,13 +2438,13 @@
         <v>43357</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2380,7 +2452,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>18</v>
@@ -2392,10 +2464,10 @@
         <v>11</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2403,7 +2475,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>18</v>
@@ -2415,13 +2487,13 @@
         <v>11</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="2" customFormat="1">
@@ -2429,7 +2501,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>18</v>
@@ -2439,13 +2511,13 @@
         <v>43346</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="2" customFormat="1">
@@ -2453,7 +2525,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>18</v>
@@ -2467,7 +2539,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2475,16 +2547,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2492,7 +2564,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>18</v>
@@ -2501,7 +2573,7 @@
         <v>43344</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2509,16 +2581,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="2" customFormat="1">
@@ -2526,7 +2598,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>18</v>
@@ -2534,13 +2606,13 @@
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
       <c r="J48" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="2" customFormat="1">
@@ -2548,7 +2620,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>18</v>
@@ -2561,12 +2633,12 @@
         <v>11</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
       <c r="J49" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="2" customFormat="1">
@@ -2574,7 +2646,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>18</v>
@@ -2585,12 +2657,12 @@
         <v>11</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
       <c r="J50" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="2" customFormat="1">
@@ -2598,7 +2670,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>18</v>
@@ -2612,7 +2684,7 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
       <c r="J51" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="2" customFormat="1">
@@ -2620,7 +2692,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>18</v>
@@ -2630,15 +2702,15 @@
         <v>43355</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
       <c r="J52" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2646,7 +2718,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>18</v>
@@ -2655,13 +2727,13 @@
         <v>43349</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G53" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="J53" s="9" t="s">
         <v>181</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2669,13 +2741,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2683,7 +2755,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>18</v>
@@ -2692,13 +2764,13 @@
         <v>43333</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="2" customFormat="1">
@@ -2706,7 +2778,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>18</v>
@@ -2720,7 +2792,7 @@
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
       <c r="J56" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2728,7 +2800,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>18</v>
@@ -2737,10 +2809,10 @@
         <v>43348</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="2" customFormat="1">
@@ -2748,7 +2820,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>18</v>
@@ -2758,13 +2830,13 @@
         <v>43357</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
       <c r="J58" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2772,7 +2844,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>18</v>
@@ -2781,10 +2853,10 @@
         <v>43325</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="2" customFormat="1">
@@ -2807,12 +2879,12 @@
         <v>11</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
       <c r="J60" s="12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2820,7 +2892,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>18</v>
@@ -2829,10 +2901,10 @@
         <v>43334</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="2" customFormat="1">
@@ -2840,7 +2912,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>18</v>
@@ -2853,12 +2925,12 @@
         <v>11</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
       <c r="J62" s="12" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2866,36 +2938,40 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="2" customFormat="1">
+      <c r="A64" s="12">
+        <v>63</v>
+      </c>
+      <c r="B64" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="5">
-        <v>63</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>188</v>
+      <c r="C64" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2903,13 +2979,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2917,13 +2993,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2931,16 +3007,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2948,13 +3024,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="2" customFormat="1">
@@ -2962,7 +3038,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>18</v>
@@ -2970,13 +3046,13 @@
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
       <c r="J69" s="12" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2984,16 +3060,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3001,13 +3077,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3015,16 +3091,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3032,7 +3108,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>18</v>
@@ -3041,10 +3117,10 @@
         <v>43348</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3052,7 +3128,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>18</v>
@@ -3061,7 +3137,7 @@
         <v>43354</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3069,13 +3145,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3083,7 +3159,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>18</v>
@@ -3092,10 +3168,10 @@
         <v>43345</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="2" customFormat="1">
@@ -3103,7 +3179,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>18</v>
@@ -3111,15 +3187,15 @@
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
       <c r="J77" s="12" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3127,16 +3203,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3144,16 +3220,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3161,16 +3237,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:10" s="2" customFormat="1">
@@ -3178,7 +3254,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>18</v>
@@ -3186,19 +3262,21 @@
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
       <c r="F81" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
+      <c r="J81" s="12" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="82" spans="1:10" s="2" customFormat="1">
       <c r="A82" s="12">
         <v>81</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C82" s="12" t="s">
         <v>18</v>
@@ -3206,13 +3284,13 @@
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
       <c r="F82" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
       <c r="J82" s="12" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="2" customFormat="1">
@@ -3220,7 +3298,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>18</v>
@@ -3228,7 +3306,7 @@
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
@@ -3240,7 +3318,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>18</v>
@@ -3248,7 +3326,7 @@
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
       <c r="F84" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
@@ -3259,42 +3337,321 @@
       <c r="A85" s="5">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" s="5">
+      <c r="B85" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="2" customFormat="1">
+      <c r="A86" s="12">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="5">
+      <c r="B86" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="12"/>
+      <c r="E86" s="20">
+        <v>43370</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="2" customFormat="1">
+      <c r="A87" s="12">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="5">
+      <c r="B87" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="2" customFormat="1">
+      <c r="A88" s="12">
         <v>87</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="5">
         <v>88</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="5">
         <v>89</v>
       </c>
+      <c r="B90" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="2" customFormat="1">
+      <c r="A91" s="12">
+        <v>90</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="5">
+        <v>91</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="5">
+        <v>92</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="5">
+        <v>93</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="5">
+        <v>94</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="5">
+        <v>95</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="5">
+        <v>96</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="5">
+        <v>97</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="5">
+        <v>98</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="5">
+        <v>99</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="5">
+        <v>100</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="5">
+        <v>101</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="5">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C90:C1048576 C1:C84">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"提前批,秋招"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I73 I90:I1048576">
       <formula1>"申请,申请GG,测评,测评GG,笔试,笔试GG,面试,面试GG,offer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F84 F90:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D73 D90:D1048576">
@@ -3323,36 +3680,36 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="27" customFormat="1">
       <c r="C4" s="27" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="15" customFormat="1">
       <c r="A5" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -3367,13 +3724,13 @@
     <row r="6" spans="1:10" s="2" customFormat="1">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -3383,7 +3740,7 @@
     <row r="7" spans="1:10" s="2" customFormat="1">
       <c r="A7" s="12"/>
       <c r="B7" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -3397,7 +3754,7 @@
     <row r="8" spans="1:10" s="2" customFormat="1">
       <c r="A8" s="12"/>
       <c r="B8" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -3411,7 +3768,7 @@
     <row r="9" spans="1:10" s="2" customFormat="1">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -3425,7 +3782,7 @@
     <row r="10" spans="1:10" s="2" customFormat="1">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -3439,7 +3796,7 @@
     <row r="11" spans="1:10" s="2" customFormat="1">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -3453,7 +3810,7 @@
     <row r="12" spans="1:10" s="2" customFormat="1">
       <c r="A12" s="12"/>
       <c r="B12" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -3467,7 +3824,7 @@
     <row r="13" spans="1:10" s="2" customFormat="1">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -3481,7 +3838,7 @@
     <row r="14" spans="1:10" s="2" customFormat="1">
       <c r="A14" s="12"/>
       <c r="B14" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -3495,7 +3852,7 @@
     <row r="15" spans="1:10" s="2" customFormat="1">
       <c r="A15" s="12"/>
       <c r="B15" s="12" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -3509,7 +3866,7 @@
     <row r="16" spans="1:10" s="2" customFormat="1">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -3525,7 +3882,7 @@
     <row r="17" spans="1:10" s="2" customFormat="1">
       <c r="A17" s="12"/>
       <c r="B17" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>18</v>
@@ -3542,10 +3899,10 @@
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1">
       <c r="A18" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>137</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -3558,10 +3915,10 @@
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1">
       <c r="A19" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -3575,7 +3932,7 @@
     <row r="20" spans="1:10" s="2" customFormat="1">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -3589,7 +3946,7 @@
     <row r="21" spans="1:10" s="2" customFormat="1">
       <c r="A21" s="12"/>
       <c r="B21" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -3634,52 +3991,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/19秋招信息表.xlsx
+++ b/19秋招信息表.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="公司列表" sheetId="1" r:id="rId1"/>
-    <sheet name="图例" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="西安的公司" sheetId="4" r:id="rId2"/>
+    <sheet name="南京的公司" sheetId="5" r:id="rId3"/>
+    <sheet name="师姐推荐" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="248">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -992,6 +994,26 @@
   </si>
   <si>
     <t>卡学位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网，西安，杭州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烽火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.9笔试，北京,上海,深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200计划，内推邮箱，18050976@cnsuning.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1119,7 +1141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1192,6 +1214,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1475,9 +1506,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E91" sqref="E91"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3666,6 +3697,958 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9" style="9"/>
+    <col min="4" max="4" width="10" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="9"/>
+    <col min="7" max="7" width="25.375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="3.125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="9" customWidth="1"/>
+    <col min="10" max="10" width="39" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="29">
+        <v>43332</v>
+      </c>
+      <c r="E3" s="20">
+        <v>43332</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="20">
+        <v>43353</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="20">
+        <v>43370</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D7 D10:D1048576">
+      <formula1>43269</formula1>
+      <formula2>43452</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+      <formula1>"申请,申请GG,测评,测评GG,笔试,笔试GG,面试,面试GG,offer"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>"提前批,秋招"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9" style="9"/>
+    <col min="4" max="4" width="10" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="9"/>
+    <col min="7" max="7" width="25.375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="3.125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="9" customWidth="1"/>
+    <col min="10" max="10" width="47.25" style="9" customWidth="1"/>
+    <col min="11" max="12" width="9" style="25"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="29">
+        <v>43332</v>
+      </c>
+      <c r="E3" s="20">
+        <v>43332</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="29">
+        <v>43283</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="20">
+        <v>43358</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="20">
+        <v>43353</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="20">
+        <v>43383</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+    </row>
+    <row r="9" spans="1:12" s="2" customFormat="1">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+    </row>
+    <row r="10" spans="1:12" s="2" customFormat="1">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+    </row>
+    <row r="12" spans="1:12" s="2" customFormat="1">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="13" spans="1:12" s="2" customFormat="1">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+    </row>
+    <row r="14" spans="1:12" s="2" customFormat="1">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+    </row>
+    <row r="15" spans="1:12" s="2" customFormat="1">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" spans="1:12" s="2" customFormat="1">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="1:12" s="2" customFormat="1">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="2" customFormat="1">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="12">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D12 D19:D1048576">
+      <formula1>43269</formula1>
+      <formula2>43452</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I12 I19:I1048576">
+      <formula1>"申请,申请GG,测评,测评GG,笔试,笔试GG,面试,面试GG,offer"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>"提前批,秋招"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3979,7 +4962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>

--- a/19秋招信息表.xlsx
+++ b/19秋招信息表.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="公司列表" sheetId="1" r:id="rId1"/>
     <sheet name="西安的公司" sheetId="4" r:id="rId2"/>
-    <sheet name="南京的公司" sheetId="5" r:id="rId3"/>
-    <sheet name="师姐推荐" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
+    <sheet name="求职帮公司" sheetId="6" r:id="rId3"/>
+    <sheet name="南京的公司" sheetId="5" r:id="rId4"/>
+    <sheet name="师姐推荐" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="271">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -830,10 +831,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上海，软件开发工程师8个人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>努比亚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1014,6 +1011,101 @@
   </si>
   <si>
     <t>1200计划，内推邮箱，18050976@cnsuning.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海，软件开发工程师8个人，测试5人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网，产品经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锐捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国电信IT研发中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烽火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国睿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瑞信通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省电信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏电信-企业信息化部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏电信-省公信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360企业安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远景能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中移物联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西电信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请GG</t>
+  </si>
+  <si>
+    <t>有内推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴微电子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1141,7 +1233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1224,6 +1316,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1507,8 +1606,8 @@
   <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1717,7 +1816,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1775,29 +1874,29 @@
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1">
-      <c r="A11" s="13">
+    <row r="11" spans="1:10" s="3" customFormat="1">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="13" t="s">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1824,7 +1923,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="3" customFormat="1">
@@ -2353,7 +2452,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>97</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2823,7 +2922,7 @@
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
       <c r="J56" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2956,12 +3055,12 @@
         <v>11</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
       <c r="J62" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3002,7 +3101,7 @@
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
       <c r="J64" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3083,7 +3182,7 @@
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
       <c r="J69" s="12" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3210,7 +3309,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>18</v>
@@ -3221,12 +3320,12 @@
         <v>11</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
       <c r="J77" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3234,16 +3333,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J78" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J78" s="9" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3251,16 +3350,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J79" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J79" s="9" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3268,16 +3367,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J80" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J80" s="9" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:10" s="2" customFormat="1">
@@ -3285,7 +3384,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>18</v>
@@ -3299,7 +3398,7 @@
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
       <c r="J81" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="2" customFormat="1">
@@ -3307,7 +3406,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C82" s="12" t="s">
         <v>18</v>
@@ -3321,7 +3420,7 @@
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
       <c r="J82" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="2" customFormat="1">
@@ -3329,7 +3428,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>18</v>
@@ -3349,7 +3448,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>18</v>
@@ -3369,16 +3468,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J85" s="9" t="s">
         <v>221</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J85" s="9" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="86" spans="1:10" s="2" customFormat="1">
@@ -3386,7 +3485,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C86" s="12" t="s">
         <v>18</v>
@@ -3402,7 +3501,7 @@
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
       <c r="J86" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:10" s="2" customFormat="1">
@@ -3410,7 +3509,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>18</v>
@@ -3424,7 +3523,7 @@
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
       <c r="J87" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:10" s="2" customFormat="1">
@@ -3432,7 +3531,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>18</v>
@@ -3446,7 +3545,7 @@
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
       <c r="J88" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3454,7 +3553,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>18</v>
@@ -3465,7 +3564,7 @@
         <v>88</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3473,7 +3572,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>18</v>
@@ -3484,7 +3583,7 @@
         <v>88</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="2" customFormat="1">
@@ -3492,7 +3591,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>18</v>
@@ -3506,7 +3605,7 @@
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
       <c r="J91" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3514,7 +3613,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>18</v>
@@ -3528,7 +3627,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>18</v>
@@ -3542,7 +3641,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>18</v>
@@ -3699,8 +3798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3710,7 +3809,7 @@
     <col min="3" max="3" width="9" style="9"/>
     <col min="4" max="4" width="10" style="9" customWidth="1"/>
     <col min="5" max="5" width="9.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="9"/>
+    <col min="6" max="6" width="9" style="33"/>
     <col min="7" max="7" width="25.375" style="9" customWidth="1"/>
     <col min="8" max="8" width="3.125" style="9" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="9" customWidth="1"/>
@@ -3734,7 +3833,7 @@
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="32" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -3762,7 +3861,7 @@
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="33" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="12" t="s">
@@ -3770,7 +3869,7 @@
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>53</v>
@@ -3792,7 +3891,7 @@
       <c r="E3" s="20">
         <v>43332</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="33" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="12" t="s">
@@ -3803,7 +3902,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1">
@@ -3818,7 +3917,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="33" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="12" t="s">
@@ -3829,7 +3928,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1">
@@ -3844,7 +3943,7 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="33" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="12"/>
@@ -3868,7 +3967,7 @@
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="33" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="12"/>
@@ -3894,7 +3993,7 @@
       <c r="E7" s="20">
         <v>43353</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="33" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="12" t="s">
@@ -3913,25 +4012,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="33" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1">
@@ -3939,7 +4038,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>18</v>
@@ -3948,7 +4047,7 @@
       <c r="E9" s="20">
         <v>43370</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="33" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="12"/>
@@ -3957,7 +4056,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1">
@@ -3965,14 +4064,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="33" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="12"/>
@@ -3981,7 +4080,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4008,10 +4107,559 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="9" style="34"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="45.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="29">
+        <v>43339</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="12">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="12">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="12">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="12">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="12">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D25">
+      <formula1>43269</formula1>
+      <formula2>43452</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F25">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I25">
+      <formula1>"申请,申请GG,测评,测评GG,笔试,笔试GG,面试,面试GG,offer"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C25">
+      <formula1>"提前批,秋招"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4147,7 +4795,7 @@
         <v>143</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
@@ -4357,7 +5005,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -4381,7 +5029,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
@@ -4391,7 +5039,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>18</v>
@@ -4405,7 +5053,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
@@ -4415,7 +5063,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>18</v>
@@ -4437,7 +5085,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>18</v>
@@ -4459,7 +5107,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>18</v>
@@ -4473,7 +5121,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
@@ -4483,7 +5131,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>18</v>
@@ -4497,7 +5145,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -4505,7 +5153,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>18</v>
@@ -4519,7 +5167,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1">
@@ -4527,7 +5175,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>18</v>
@@ -4541,7 +5189,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
@@ -4551,7 +5199,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>18</v>
@@ -4571,7 +5219,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>18</v>
@@ -4591,7 +5239,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>18</v>
@@ -4611,7 +5259,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>18</v>
@@ -4625,6 +5273,26 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" s="2" customFormat="1">
+      <c r="A25" s="12">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4647,7 +5315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -4678,7 +5346,7 @@
     </row>
     <row r="4" spans="1:10" s="27" customFormat="1">
       <c r="C4" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>200</v>
@@ -4687,7 +5355,7 @@
         <v>199</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="15" customFormat="1">
@@ -4835,7 +5503,7 @@
     <row r="15" spans="1:10" s="2" customFormat="1">
       <c r="A15" s="12"/>
       <c r="B15" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -4962,7 +5630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>

--- a/19秋招信息表.xlsx
+++ b/19秋招信息表.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="公司列表" sheetId="1" r:id="rId1"/>
-    <sheet name="西安的公司" sheetId="4" r:id="rId2"/>
-    <sheet name="求职帮公司" sheetId="6" r:id="rId3"/>
+    <sheet name="求职帮公司" sheetId="6" r:id="rId2"/>
+    <sheet name="西安的公司" sheetId="4" r:id="rId3"/>
     <sheet name="南京的公司" sheetId="5" r:id="rId4"/>
     <sheet name="师姐推荐" sheetId="2" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId6"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="284">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1108,12 +1108,64 @@
     <t>中兴微电子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>华勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c++开发岗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烽火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安南京都有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京软件工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州 北京 福州 上海，无南京西安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国电信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瑞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴高达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历发送至gaodazhaopin@zte.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1155,8 +1207,16 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1205,6 +1265,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1230,10 +1302,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1310,12 +1383,6 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1323,9 +1390,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3796,10 +3888,559 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="9" style="32"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="45.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="29">
+        <v>43339</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="12">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="12">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="12">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="12">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="12">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D25">
+      <formula1>43269</formula1>
+      <formula2>43452</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F25">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I25">
+      <formula1>"申请,申请GG,测评,测评GG,笔试,笔试GG,面试,面试GG,offer"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C25">
+      <formula1>"提前批,秋招"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3809,7 +4450,7 @@
     <col min="3" max="3" width="9" style="9"/>
     <col min="4" max="4" width="10" style="9" customWidth="1"/>
     <col min="5" max="5" width="9.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="33"/>
+    <col min="6" max="6" width="9" style="31"/>
     <col min="7" max="7" width="25.375" style="9" customWidth="1"/>
     <col min="8" max="8" width="3.125" style="9" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="9" customWidth="1"/>
@@ -3833,7 +4474,7 @@
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -3861,7 +4502,7 @@
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="31" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="12" t="s">
@@ -3891,7 +4532,7 @@
       <c r="E3" s="20">
         <v>43332</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="31" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="12" t="s">
@@ -3917,7 +4558,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="31" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="12" t="s">
@@ -3943,7 +4584,7 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="31" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="12"/>
@@ -3967,7 +4608,7 @@
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="31" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="12"/>
@@ -3993,7 +4634,7 @@
       <c r="E7" s="20">
         <v>43353</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="31" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="12" t="s">
@@ -4019,7 +4660,7 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="31" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="12" t="s">
@@ -4047,7 +4688,7 @@
       <c r="E9" s="20">
         <v>43370</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="31" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="12"/>
@@ -4071,7 +4712,7 @@
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="31" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="12"/>
@@ -4082,6 +4723,68 @@
       <c r="J10" s="12" t="s">
         <v>243</v>
       </c>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4105,561 +4808,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="9" style="34"/>
-    <col min="7" max="7" width="24.5" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="45.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="29">
-        <v>43339</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="12">
-        <v>10</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="12">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="12">
-        <v>13</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="12">
-        <v>14</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="12">
-        <v>15</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="12">
-        <v>16</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="12">
-        <v>17</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="12">
-        <v>18</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="12">
-        <v>19</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="12">
-        <v>20</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="12">
-        <v>21</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="12">
-        <v>22</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="12">
-        <v>23</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="12">
-        <v>24</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="12">
-        <v>25</v>
-      </c>
-      <c r="B26" s="12"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="12">
-        <v>26</v>
-      </c>
-      <c r="B27" s="12"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="12">
-        <v>27</v>
-      </c>
-      <c r="B28" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D25">
-      <formula1>43269</formula1>
-      <formula2>43452</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F25">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I25">
-      <formula1>"申请,申请GG,测评,测评GG,笔试,笔试GG,面试,面试GG,offer"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C25">
-      <formula1>"提前批,秋招"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4678,67 +4832,63 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:12" s="40" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1">
-      <c r="A2" s="12">
+    </row>
+    <row r="2" spans="1:12" s="34" customFormat="1">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="33"/>
+      <c r="I2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1">
       <c r="A3" s="12">
@@ -4770,119 +4920,111 @@
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1">
-      <c r="A4" s="12">
+    <row r="4" spans="1:12" s="34" customFormat="1">
+      <c r="A4" s="33">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="29">
+      <c r="C4" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="36">
         <v>43283</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="J4" s="12" t="s">
+      <c r="E4" s="33"/>
+      <c r="F4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1">
-      <c r="A5" s="12">
+    </row>
+    <row r="5" spans="1:12" s="34" customFormat="1">
+      <c r="A5" s="33">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12" t="s">
+      <c r="C5" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-    </row>
-    <row r="6" spans="1:12" s="2" customFormat="1">
-      <c r="A6" s="12">
+    </row>
+    <row r="6" spans="1:12" s="34" customFormat="1">
+      <c r="A6" s="33">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="20">
+      <c r="C6" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="35">
         <v>43358</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12" t="s">
+      <c r="H6" s="33"/>
+      <c r="I6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-    </row>
-    <row r="7" spans="1:12" s="2" customFormat="1">
-      <c r="A7" s="12">
+    </row>
+    <row r="7" spans="1:12" s="34" customFormat="1">
+      <c r="A7" s="33">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="20">
+      <c r="C7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="35">
         <v>43353</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12" t="s">
+      <c r="F7" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1">
       <c r="A8" s="12">
@@ -4962,29 +5104,27 @@
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1">
-      <c r="A11" s="12">
+    <row r="11" spans="1:12" s="34" customFormat="1">
+      <c r="A11" s="33">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
+      <c r="C11" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1">
       <c r="A12" s="12">
@@ -5058,49 +5198,45 @@
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
     </row>
-    <row r="15" spans="1:12" s="2" customFormat="1">
-      <c r="A15" s="12">
+    <row r="15" spans="1:12" s="34" customFormat="1">
+      <c r="A15" s="33">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-    </row>
-    <row r="16" spans="1:12" s="2" customFormat="1">
-      <c r="A16" s="12">
+      <c r="C15" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" spans="1:12" s="34" customFormat="1">
+      <c r="A16" s="33">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="C16" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:12" s="2" customFormat="1">
       <c r="A17" s="12">
@@ -5126,26 +5262,26 @@
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="12">
+    <row r="18" spans="1:12" s="37" customFormat="1">
+      <c r="A18" s="31">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12" t="s">
-        <v>227</v>
+      <c r="C18" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -5214,85 +5350,171 @@
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="12">
+    <row r="22" spans="1:12" s="34" customFormat="1">
+      <c r="A22" s="33">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="12">
+      <c r="C22" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+    </row>
+    <row r="23" spans="1:12" s="34" customFormat="1">
+      <c r="A23" s="33">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="12">
+      <c r="C23" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+    </row>
+    <row r="24" spans="1:12" s="34" customFormat="1">
+      <c r="A24" s="33">
         <v>23</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:12" s="2" customFormat="1">
-      <c r="A25" s="12">
+      <c r="C24" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+    </row>
+    <row r="25" spans="1:12" s="34" customFormat="1">
+      <c r="A25" s="33">
         <v>24</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12" t="s">
+      <c r="C25" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+    </row>
+    <row r="26" spans="1:12" s="34" customFormat="1">
+      <c r="A26" s="33">
+        <v>25</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+    </row>
+    <row r="27" spans="1:12" s="34" customFormat="1">
+      <c r="A27" s="33">
+        <v>26</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+    </row>
+    <row r="28" spans="1:12" s="34" customFormat="1">
+      <c r="A28" s="33">
+        <v>27</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+    </row>
+    <row r="29" spans="1:12" s="34" customFormat="1">
+      <c r="A29" s="33">
+        <v>28</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="38" t="s">
+        <v>283</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5311,6 +5533,9 @@
       <formula1>"提前批,秋招"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J29" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/19秋招信息表.xlsx
+++ b/19秋招信息表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="公司列表" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="南京的公司" sheetId="5" r:id="rId4"/>
     <sheet name="师姐推荐" sheetId="2" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId6"/>
+    <sheet name="自己想去的" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="297">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1158,6 +1159,58 @@
   </si>
   <si>
     <t>简历发送至gaodazhaopin@zte.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广联达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科创达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西和西安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中新赛克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烽火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已拿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉凉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已投</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1698,8 +1751,8 @@
   <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2712,7 +2765,7 @@
         <v>151</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J42" s="9" t="s">
         <v>123</v>
@@ -2733,7 +2786,7 @@
         <v>43346</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -3890,7 +3943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -4437,10 +4490,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4596,27 +4649,27 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1">
-      <c r="A6" s="12">
+    <row r="6" spans="1:10" s="34" customFormat="1">
+      <c r="A6" s="33">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12" t="s">
+      <c r="C6" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="33" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4741,7 +4794,9 @@
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="I11" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1">
@@ -4757,11 +4812,13 @@
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="31" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="I12" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="J12" s="12" t="s">
         <v>275</v>
       </c>
@@ -4779,12 +4836,208 @@
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="31" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="I13" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="12">
+        <v>23</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="12">
+        <v>24</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="12">
+        <v>25</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="12">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4810,10 +5063,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5251,7 +5504,7 @@
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -5467,7 +5720,7 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="33" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
@@ -5487,9 +5740,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="33"/>
+        <v>11</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>287</v>
+      </c>
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="33"/>
@@ -5507,13 +5762,21 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="33" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
       <c r="I29" s="33"/>
       <c r="J29" s="38" t="s">
         <v>283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="B30" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -5545,7 +5808,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5920,4 +6183,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>